--- a/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.95030914646096</v>
+        <v>14.11271701734132</v>
       </c>
       <c r="C2">
-        <v>16.37144718501444</v>
+        <v>8.115539399835351</v>
       </c>
       <c r="D2">
-        <v>2.933955570781681</v>
+        <v>4.452256684044865</v>
       </c>
       <c r="E2">
-        <v>30.10827348946221</v>
+        <v>29.55600248574026</v>
       </c>
       <c r="F2">
-        <v>30.4035928704043</v>
+        <v>18.98321601778879</v>
       </c>
       <c r="G2">
-        <v>2.0433641387512</v>
+        <v>2.076821944399847</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>20.30945802172924</v>
+        <v>12.59933317724417</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>11.24504525856459</v>
+        <v>11.57856048600477</v>
       </c>
       <c r="O2">
-        <v>23.32484969365547</v>
+        <v>15.01327909580958</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.30845419395333</v>
+        <v>13.17936697744922</v>
       </c>
       <c r="C3">
-        <v>15.22913649007626</v>
+        <v>7.710858246126792</v>
       </c>
       <c r="D3">
-        <v>3.052282937262488</v>
+        <v>4.327766994263931</v>
       </c>
       <c r="E3">
-        <v>27.84235113819021</v>
+        <v>27.42093871815536</v>
       </c>
       <c r="F3">
-        <v>28.79865251286719</v>
+        <v>18.48010813196974</v>
       </c>
       <c r="G3">
-        <v>2.054033343527756</v>
+        <v>2.082084711312734</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>18.88919622695996</v>
+        <v>11.85500410993438</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>11.5287997284667</v>
+        <v>11.79736073422942</v>
       </c>
       <c r="O3">
-        <v>22.25792447388582</v>
+        <v>14.8575602955229</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.24973276180602</v>
+        <v>12.57363652831851</v>
       </c>
       <c r="C4">
-        <v>14.49368745126051</v>
+        <v>7.451663334611856</v>
       </c>
       <c r="D4">
-        <v>3.124840874312986</v>
+        <v>4.248815970594794</v>
       </c>
       <c r="E4">
-        <v>26.39468757231375</v>
+        <v>26.04628021809168</v>
       </c>
       <c r="F4">
-        <v>27.81125689124318</v>
+        <v>18.18401420133955</v>
       </c>
       <c r="G4">
-        <v>2.060701434419441</v>
+        <v>2.085406387908309</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.97389764436139</v>
+        <v>11.37437495380564</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.70561284743551</v>
+        <v>11.93416518404992</v>
       </c>
       <c r="O4">
-        <v>21.61135269937369</v>
+        <v>14.77629679322803</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.80533100419502</v>
+        <v>12.31854179291523</v>
       </c>
       <c r="C5">
-        <v>14.18525082342235</v>
+        <v>7.343398253388933</v>
       </c>
       <c r="D5">
-        <v>3.154431888160855</v>
+        <v>4.2160400301249</v>
       </c>
       <c r="E5">
-        <v>25.78999985473452</v>
+        <v>25.46978135697914</v>
       </c>
       <c r="F5">
-        <v>27.40868295597732</v>
+        <v>18.06665282482492</v>
       </c>
       <c r="G5">
-        <v>2.063451527925055</v>
+        <v>2.086783488470343</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.5898283380569</v>
+        <v>11.17260771301448</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.77836366582799</v>
+        <v>11.99056648997814</v>
       </c>
       <c r="O5">
-        <v>21.35015773819524</v>
+        <v>14.74667496466459</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.73074884859736</v>
+        <v>12.27568374759774</v>
       </c>
       <c r="C6">
-        <v>14.13350296506918</v>
+        <v>7.325263274540469</v>
       </c>
       <c r="D6">
-        <v>3.15934815318642</v>
+        <v>4.210562110019684</v>
       </c>
       <c r="E6">
-        <v>25.6886850640583</v>
+        <v>25.37306059987918</v>
       </c>
       <c r="F6">
-        <v>27.34183408425497</v>
+        <v>18.04736640457261</v>
       </c>
       <c r="G6">
-        <v>2.063910250921422</v>
+        <v>2.087013595678358</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.52537930648928</v>
+        <v>11.13874885249533</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.79048740327338</v>
+        <v>11.99997223445447</v>
       </c>
       <c r="O6">
-        <v>21.30692988792391</v>
+        <v>14.74196380633213</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.243792195867</v>
+        <v>12.57022970959149</v>
       </c>
       <c r="C7">
-        <v>14.48956334642389</v>
+        <v>7.450213845183484</v>
       </c>
       <c r="D7">
-        <v>3.125239796118525</v>
+        <v>4.248376342803557</v>
       </c>
       <c r="E7">
-        <v>26.38659299902341</v>
+        <v>26.03857178304348</v>
       </c>
       <c r="F7">
-        <v>27.80582799947388</v>
+        <v>18.18241797061359</v>
       </c>
       <c r="G7">
-        <v>2.060738386189588</v>
+        <v>2.085424863857146</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.96876305827783</v>
+        <v>11.37167771586616</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.706591102346</v>
+        <v>11.93492314714827</v>
       </c>
       <c r="O7">
-        <v>21.60782064024287</v>
+        <v>14.77588331350438</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.39455464119268</v>
+        <v>13.79764580119059</v>
       </c>
       <c r="C8">
-        <v>15.98454122600815</v>
+        <v>7.97825834370115</v>
       </c>
       <c r="D8">
-        <v>2.974804217469187</v>
+        <v>4.409871276600896</v>
       </c>
       <c r="E8">
-        <v>29.33831931947366</v>
+        <v>28.83287704136859</v>
       </c>
       <c r="F8">
-        <v>29.85075600503636</v>
+        <v>18.80713222497157</v>
       </c>
       <c r="G8">
-        <v>2.04702067552228</v>
+        <v>2.078618285548059</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>19.82860137138714</v>
+        <v>12.34760085970813</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>11.34237609214481</v>
+        <v>11.65351318545646</v>
       </c>
       <c r="O8">
-        <v>22.95527455611667</v>
+        <v>14.95654276045154</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.22233789406839</v>
+        <v>15.94783854282011</v>
       </c>
       <c r="C9">
-        <v>18.6545701785189</v>
+        <v>8.9270166393314</v>
       </c>
       <c r="D9">
-        <v>2.676711362556707</v>
+        <v>4.705445364729964</v>
       </c>
       <c r="E9">
-        <v>34.70880036200798</v>
+        <v>33.82099721705494</v>
       </c>
       <c r="F9">
-        <v>33.83858546953119</v>
+        <v>20.13035730043946</v>
       </c>
       <c r="G9">
-        <v>2.020879925144687</v>
+        <v>2.065949339135268</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.1427411497878</v>
+        <v>14.07360801197457</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>10.64645138404324</v>
+        <v>11.11954304297628</v>
       </c>
       <c r="O9">
-        <v>25.66220780369919</v>
+        <v>15.42939927182361</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.81534434782613</v>
+        <v>17.37460530455159</v>
       </c>
       <c r="C10">
-        <v>20.47068988590246</v>
+        <v>9.569832679272686</v>
       </c>
       <c r="D10">
-        <v>2.452269287160327</v>
+        <v>4.908322017712814</v>
       </c>
       <c r="E10">
-        <v>38.44757080311854</v>
+        <v>37.20739203055184</v>
       </c>
       <c r="F10">
-        <v>36.75538181085859</v>
+        <v>21.15785259207582</v>
       </c>
       <c r="G10">
-        <v>2.00186420702879</v>
+        <v>2.056998022968577</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.39078105318939</v>
+        <v>15.22765523618833</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>10.14316817914261</v>
+        <v>10.73563552091995</v>
       </c>
       <c r="O10">
-        <v>27.69226975834641</v>
+        <v>15.8550965771559</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.95215519799507</v>
+        <v>17.99132965692983</v>
       </c>
       <c r="C11">
-        <v>21.26901772363913</v>
+        <v>9.850427571917656</v>
       </c>
       <c r="D11">
-        <v>2.348127141485966</v>
+        <v>4.997258917146259</v>
       </c>
       <c r="E11">
-        <v>40.11660796121664</v>
+        <v>38.69273816768084</v>
       </c>
       <c r="F11">
-        <v>38.18259751569491</v>
+        <v>21.63649953818625</v>
       </c>
       <c r="G11">
-        <v>1.993181057682185</v>
+        <v>2.052989262951713</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.37715826877679</v>
+        <v>15.72823332675936</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.915279791016291</v>
+        <v>10.5621978410268</v>
       </c>
       <c r="O11">
-        <v>28.67645262248675</v>
+        <v>16.06692539776805</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.37695722277044</v>
+        <v>18.22029711622281</v>
       </c>
       <c r="C12">
-        <v>21.56769386924729</v>
+        <v>9.954988306051927</v>
       </c>
       <c r="D12">
-        <v>2.308323150772691</v>
+        <v>5.030436000200387</v>
       </c>
       <c r="E12">
-        <v>40.74540834170718</v>
+        <v>39.24775531245017</v>
       </c>
       <c r="F12">
-        <v>38.73233562249673</v>
+        <v>21.81931649939287</v>
       </c>
       <c r="G12">
-        <v>1.989880841707556</v>
+        <v>2.051479063950592</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>26.7458792234442</v>
+        <v>15.91432023390636</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>9.829085669826009</v>
+        <v>10.4966386310581</v>
       </c>
       <c r="O12">
-        <v>29.09940524056964</v>
+        <v>16.14984348634036</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.28571307307372</v>
+        <v>18.17118699225267</v>
       </c>
       <c r="C13">
-        <v>21.50352364238605</v>
+        <v>9.932544448086492</v>
       </c>
       <c r="D13">
-        <v>2.316913174064701</v>
+        <v>5.023313310324673</v>
       </c>
       <c r="E13">
-        <v>40.61010436513538</v>
+        <v>39.12854566902715</v>
       </c>
       <c r="F13">
-        <v>38.61400487499378</v>
+        <v>21.77987466851862</v>
       </c>
       <c r="G13">
-        <v>1.990592271821278</v>
+        <v>2.051803985440249</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>26.66667461980118</v>
+        <v>15.87439675853871</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>9.847645298670725</v>
+        <v>10.51075367485166</v>
       </c>
       <c r="O13">
-        <v>29.008355012877</v>
+        <v>16.13186395734136</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.9872148933735</v>
+        <v>18.01025814088692</v>
       </c>
       <c r="C14">
-        <v>21.29366046459834</v>
+        <v>9.859063738494743</v>
       </c>
       <c r="D14">
-        <v>2.344860233351981</v>
+        <v>4.999998568776273</v>
       </c>
       <c r="E14">
-        <v>40.1683958440481</v>
+        <v>38.73854617406992</v>
       </c>
       <c r="F14">
-        <v>38.2278552687815</v>
+        <v>21.65150888888275</v>
       </c>
       <c r="G14">
-        <v>1.992909836265756</v>
+        <v>2.05286486868469</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.40758670656882</v>
+        <v>15.74361212268085</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>9.908186764356513</v>
+        <v>10.55680221855773</v>
       </c>
       <c r="O14">
-        <v>28.71126821283153</v>
+        <v>16.07369243616596</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.80365103731508</v>
+        <v>17.91109139811427</v>
       </c>
       <c r="C15">
-        <v>21.16465208238816</v>
+        <v>9.813834350281043</v>
       </c>
       <c r="D15">
-        <v>2.361928545525944</v>
+        <v>4.985651777356236</v>
       </c>
       <c r="E15">
-        <v>39.89746037934155</v>
+        <v>38.49870491422557</v>
       </c>
       <c r="F15">
-        <v>37.99112390361631</v>
+        <v>21.57308357303325</v>
       </c>
       <c r="G15">
-        <v>1.994327595095097</v>
+        <v>2.05351567064357</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.24827646816209</v>
+        <v>15.66305200790116</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.945282093798326</v>
+        <v>10.58502190137898</v>
       </c>
       <c r="O15">
-        <v>28.5291656574719</v>
+        <v>16.03841535766097</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.74022878944071</v>
+        <v>17.33365683200719</v>
       </c>
       <c r="C16">
-        <v>20.41798736352045</v>
+        <v>9.551257487466575</v>
       </c>
       <c r="D16">
-        <v>2.459027817962364</v>
+        <v>4.902440630262329</v>
       </c>
       <c r="E16">
-        <v>38.33796510408455</v>
+        <v>37.10925131012836</v>
       </c>
       <c r="F16">
-        <v>36.66869040544717</v>
+        <v>21.1267931147892</v>
       </c>
       <c r="G16">
-        <v>2.002430408961819</v>
+        <v>2.057261172215694</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.32562329743517</v>
+        <v>15.19445324537161</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>10.15807813018545</v>
+        <v>10.74698970347778</v>
       </c>
       <c r="O16">
-        <v>27.63142824560362</v>
+        <v>15.84162649553594</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.07721085944174</v>
+        <v>16.97119308757608</v>
       </c>
       <c r="C17">
-        <v>19.95304770200796</v>
+        <v>9.387147637563173</v>
       </c>
       <c r="D17">
-        <v>2.518019727840562</v>
+        <v>4.85052031264126</v>
       </c>
       <c r="E17">
-        <v>37.37400898972714</v>
+        <v>36.24306814558562</v>
       </c>
       <c r="F17">
-        <v>35.90902093778448</v>
+        <v>20.85584332475248</v>
       </c>
       <c r="G17">
-        <v>2.007387956352538</v>
+        <v>2.059574252158302</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>24.75059265029848</v>
+        <v>14.90075666159547</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.28885558003817</v>
+        <v>10.84662236496093</v>
       </c>
       <c r="O17">
-        <v>27.09953584784481</v>
+        <v>15.72562250096898</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.69180398228187</v>
+        <v>16.75966668565697</v>
       </c>
       <c r="C18">
-        <v>19.68298146331684</v>
+        <v>9.291641972669414</v>
       </c>
       <c r="D18">
-        <v>2.551762692473523</v>
+        <v>4.820342582944407</v>
       </c>
       <c r="E18">
-        <v>36.81648543975056</v>
+        <v>35.73964090033502</v>
       </c>
       <c r="F18">
-        <v>35.47206800368896</v>
+        <v>20.70105969258605</v>
       </c>
       <c r="G18">
-        <v>2.010236827409734</v>
+        <v>2.060910709180408</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.41640812543028</v>
+        <v>14.7295302452637</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.36417765291713</v>
+        <v>10.90404534537683</v>
       </c>
       <c r="O18">
-        <v>26.79465151606935</v>
+        <v>15.66060581545276</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.56060208748542</v>
+        <v>16.68752200095792</v>
       </c>
       <c r="C19">
-        <v>19.59107707866155</v>
+        <v>9.259114031325897</v>
       </c>
       <c r="D19">
-        <v>2.563157492466985</v>
+        <v>4.810071515910776</v>
       </c>
       <c r="E19">
-        <v>36.62715152402468</v>
+        <v>35.56827850400547</v>
       </c>
       <c r="F19">
-        <v>35.32411019081606</v>
+        <v>20.64883645607705</v>
       </c>
       <c r="G19">
-        <v>2.011201168008556</v>
+        <v>2.061364283543579</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.30265616351725</v>
+        <v>14.67115991157009</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.38969958578894</v>
+        <v>10.92350945670883</v>
       </c>
       <c r="O19">
-        <v>26.69159405988393</v>
+        <v>15.63888250076114</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.14820693808239</v>
+        <v>17.01009278590214</v>
       </c>
       <c r="C20">
-        <v>20.00281261512102</v>
+        <v>9.404732694057596</v>
       </c>
       <c r="D20">
-        <v>2.511759890019893</v>
+        <v>4.856080017433738</v>
       </c>
       <c r="E20">
-        <v>37.47693379228404</v>
+        <v>36.33581193289284</v>
       </c>
       <c r="F20">
-        <v>35.98988743396956</v>
+        <v>20.88457716886528</v>
       </c>
       <c r="G20">
-        <v>2.006860533346813</v>
+        <v>2.059327405051397</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.81215908153756</v>
+        <v>14.93225895137699</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.27492388221457</v>
+        <v>10.83600458170099</v>
       </c>
       <c r="O20">
-        <v>27.15604631586078</v>
+        <v>15.73779413549878</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.07504121725471</v>
+        <v>18.05765032046187</v>
       </c>
       <c r="C21">
-        <v>21.35539771445448</v>
+        <v>9.880692697286699</v>
       </c>
       <c r="D21">
-        <v>2.33666206952886</v>
+        <v>5.006860426391794</v>
       </c>
       <c r="E21">
-        <v>40.29821198683472</v>
+        <v>38.8532966376982</v>
       </c>
       <c r="F21">
-        <v>38.34131787538142</v>
+        <v>21.68917090888857</v>
       </c>
       <c r="G21">
-        <v>1.99222950498369</v>
+        <v>2.052553059686462</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.48381368212481</v>
+        <v>15.78212059443841</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>9.890401861691013</v>
+        <v>10.54327391292127</v>
       </c>
       <c r="O21">
-        <v>28.79855544118768</v>
+        <v>16.09070475320473</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.30148359605534</v>
+        <v>18.71567585100716</v>
       </c>
       <c r="C22">
-        <v>22.21843295560796</v>
+        <v>10.18189279219186</v>
       </c>
       <c r="D22">
-        <v>2.220049975848848</v>
+        <v>5.102473856779993</v>
       </c>
       <c r="E22">
-        <v>42.12408930139834</v>
+        <v>40.45544748771635</v>
       </c>
       <c r="F22">
-        <v>39.93897601017</v>
+        <v>22.22412439456314</v>
       </c>
       <c r="G22">
-        <v>1.982592350594079</v>
+        <v>2.048170603582241</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.54861207569402</v>
+        <v>16.31734636942588</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>9.639672416922524</v>
+        <v>10.35261491333869</v>
       </c>
       <c r="O22">
-        <v>30.02818622661706</v>
+        <v>16.33714942767932</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.64974044147204</v>
+        <v>18.36688410628913</v>
       </c>
       <c r="C23">
-        <v>21.75959303277297</v>
+        <v>10.02203510184492</v>
       </c>
       <c r="D23">
-        <v>2.282511135880621</v>
+        <v>5.051717232945449</v>
       </c>
       <c r="E23">
-        <v>41.15071680718862</v>
+        <v>39.60412781298428</v>
       </c>
       <c r="F23">
-        <v>39.08691149240158</v>
+        <v>21.9377885583326</v>
       </c>
       <c r="G23">
-        <v>1.987745532230713</v>
+        <v>2.050505938010883</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>26.98268960633751</v>
+        <v>16.03352020987265</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>9.773453328910049</v>
+        <v>10.45433274853301</v>
       </c>
       <c r="O23">
-        <v>29.37226899029088</v>
+        <v>16.2041424220861</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.11612281746902</v>
+        <v>16.99251602190281</v>
       </c>
       <c r="C24">
-        <v>19.98032254098548</v>
+        <v>9.396786093300284</v>
       </c>
       <c r="D24">
-        <v>2.514590493752523</v>
+        <v>4.853567495213505</v>
       </c>
       <c r="E24">
-        <v>37.43041196491445</v>
+        <v>36.2938994683217</v>
       </c>
       <c r="F24">
-        <v>35.95332837396275</v>
+        <v>20.8715835132039</v>
       </c>
       <c r="G24">
-        <v>2.007098984766382</v>
+        <v>2.059438983863705</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.78433611586583</v>
+        <v>14.91802417069225</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.28122197426793</v>
+        <v>10.84080443250488</v>
       </c>
       <c r="O24">
-        <v>27.13049513078015</v>
+        <v>15.73228612729738</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.22678800783029</v>
+        <v>15.3932952669403</v>
       </c>
       <c r="C25">
-        <v>17.95894041285614</v>
+        <v>8.679821596808917</v>
       </c>
       <c r="D25">
-        <v>2.758032217101474</v>
+        <v>4.627899272826516</v>
       </c>
       <c r="E25">
-        <v>33.29616969304041</v>
+        <v>32.52210988701959</v>
       </c>
       <c r="F25">
-        <v>32.76259901814107</v>
+        <v>19.76236454723243</v>
       </c>
       <c r="G25">
-        <v>2.027896273507046</v>
+        <v>2.069309592615073</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>22.28028413336641</v>
+        <v>13.62678323917775</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.83308051532197</v>
+        <v>11.26232799325868</v>
       </c>
       <c r="O25">
-        <v>24.92312165207824</v>
+        <v>15.28813957052538</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1211 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.11271701734132</v>
+        <v>13.23179036678256</v>
       </c>
       <c r="C2">
-        <v>8.115539399835351</v>
+        <v>7.974762748102518</v>
       </c>
       <c r="D2">
-        <v>4.452256684044865</v>
+        <v>4.955175901031125</v>
       </c>
       <c r="E2">
-        <v>29.55600248574026</v>
+        <v>28.95985080465236</v>
       </c>
       <c r="F2">
-        <v>18.98321601778879</v>
+        <v>16.19610658091785</v>
       </c>
       <c r="G2">
-        <v>2.076821944399847</v>
+        <v>19.41101925882625</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.995049526238752</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.072488450007244</v>
       </c>
       <c r="K2">
-        <v>12.59933317724417</v>
+        <v>11.67391174797108</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.06255835965327</v>
       </c>
       <c r="N2">
-        <v>11.57856048600477</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>15.01327909580958</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>11.45691376982603</v>
+      </c>
+      <c r="Q2">
+        <v>12.86855253615821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.17936697744922</v>
+        <v>12.4228528217783</v>
       </c>
       <c r="C3">
-        <v>7.710858246126792</v>
+        <v>7.57148124140685</v>
       </c>
       <c r="D3">
-        <v>4.327766994263931</v>
+        <v>4.736226547782555</v>
       </c>
       <c r="E3">
-        <v>27.42093871815536</v>
+        <v>27.12325263409184</v>
       </c>
       <c r="F3">
-        <v>18.48010813196974</v>
+        <v>15.82254273958724</v>
       </c>
       <c r="G3">
-        <v>2.082084711312734</v>
+        <v>18.93035268003635</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>2.774211267802825</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>8.086163525174921</v>
       </c>
       <c r="K3">
-        <v>11.85500410993438</v>
+        <v>11.76430779183824</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.41618710751605</v>
       </c>
       <c r="N3">
-        <v>11.79736073422942</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.8575602955229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>11.58922643809285</v>
+      </c>
+      <c r="Q3">
+        <v>12.78797369872969</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.57363652831851</v>
+        <v>11.89777604487115</v>
       </c>
       <c r="C4">
-        <v>7.451663334611856</v>
+        <v>7.312498809796991</v>
       </c>
       <c r="D4">
-        <v>4.248815970594794</v>
+        <v>4.595561475974757</v>
       </c>
       <c r="E4">
-        <v>26.04628021809168</v>
+        <v>25.93193620453654</v>
       </c>
       <c r="F4">
-        <v>18.18401420133955</v>
+        <v>15.59975835901027</v>
       </c>
       <c r="G4">
-        <v>2.085406387908309</v>
+        <v>18.64511013818023</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>2.633746881364117</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>8.098117323943828</v>
       </c>
       <c r="K4">
-        <v>11.37437495380564</v>
+        <v>11.82657620625424</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.99936842362307</v>
       </c>
       <c r="N4">
-        <v>11.93416518404992</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.77629679322803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>11.67253207526232</v>
+      </c>
+      <c r="Q4">
+        <v>12.74601553079323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.31854179291523</v>
+        <v>11.67669607176631</v>
       </c>
       <c r="C5">
-        <v>7.343398253388933</v>
+        <v>7.204181550104177</v>
       </c>
       <c r="D5">
-        <v>4.2160400301249</v>
+        <v>4.536710164659459</v>
       </c>
       <c r="E5">
-        <v>25.46978135697914</v>
+        <v>25.43048123252287</v>
       </c>
       <c r="F5">
-        <v>18.06665282482492</v>
+        <v>15.51071096619144</v>
       </c>
       <c r="G5">
-        <v>2.086783488470343</v>
+        <v>18.53144627192664</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>2.575264580238651</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>8.103855629787486</v>
       </c>
       <c r="K5">
-        <v>11.17260771301448</v>
+        <v>11.85358718368397</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.82458638745461</v>
       </c>
       <c r="N5">
-        <v>11.99056648997814</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.74667496466459</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>11.70700511649977</v>
+      </c>
+      <c r="Q5">
+        <v>12.73075791493009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.27568374759774</v>
+        <v>11.63955784902518</v>
       </c>
       <c r="C6">
-        <v>7.325263274540469</v>
+        <v>7.186030250296906</v>
       </c>
       <c r="D6">
-        <v>4.210562110019684</v>
+        <v>4.526846806562685</v>
       </c>
       <c r="E6">
-        <v>25.37306059987918</v>
+        <v>25.34625063525616</v>
       </c>
       <c r="F6">
-        <v>18.04736640457261</v>
+        <v>15.49603208924228</v>
       </c>
       <c r="G6">
-        <v>2.087013595678358</v>
+        <v>18.51273039683918</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>2.565478123539561</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>8.104860043255623</v>
       </c>
       <c r="K6">
-        <v>11.13874885249533</v>
+        <v>11.85816930746457</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.7952695478593</v>
       </c>
       <c r="N6">
-        <v>11.99997223445447</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.74196380633213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>11.71276124309722</v>
+      </c>
+      <c r="Q6">
+        <v>12.72833406200903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.57022970959149</v>
+        <v>11.89482320788491</v>
       </c>
       <c r="C7">
-        <v>7.450213845183484</v>
+        <v>7.311049146013179</v>
       </c>
       <c r="D7">
-        <v>4.248376342803557</v>
+        <v>4.594773924223685</v>
       </c>
       <c r="E7">
-        <v>26.03857178304348</v>
+        <v>25.92523808441444</v>
       </c>
       <c r="F7">
-        <v>18.18241797061359</v>
+        <v>15.59855028676798</v>
       </c>
       <c r="G7">
-        <v>2.085424863857146</v>
+        <v>18.64356669181331</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>2.632963220091221</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>8.098191238106626</v>
       </c>
       <c r="K7">
-        <v>11.37167771586616</v>
+        <v>11.8269339449895</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.99703105906055</v>
       </c>
       <c r="N7">
-        <v>11.93492314714827</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.77588331350438</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>11.6729948557607</v>
+      </c>
+      <c r="Q7">
+        <v>12.74580237620536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.79764580119059</v>
+        <v>12.9587746076848</v>
       </c>
       <c r="C8">
-        <v>7.97825834370115</v>
+        <v>7.838112595157963</v>
       </c>
       <c r="D8">
-        <v>4.409871276600896</v>
+        <v>4.880995475828343</v>
       </c>
       <c r="E8">
-        <v>28.83287704136859</v>
+        <v>28.33980366877184</v>
       </c>
       <c r="F8">
-        <v>18.80713222497157</v>
+        <v>16.06598600175639</v>
       </c>
       <c r="G8">
-        <v>2.078618285548059</v>
+        <v>19.24328817486309</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>2.919904225299047</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.076448656076172</v>
       </c>
       <c r="K8">
-        <v>12.34760085970813</v>
+        <v>11.70363625823136</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.84387678456384</v>
       </c>
       <c r="N8">
-        <v>11.65351318545646</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.95654276045154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>11.50211020447349</v>
+      </c>
+      <c r="Q8">
+        <v>12.83917972477117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.94783854282011</v>
+        <v>14.81923858735255</v>
       </c>
       <c r="C9">
-        <v>8.9270166393314</v>
+        <v>8.778788945426278</v>
       </c>
       <c r="D9">
-        <v>4.705445364729964</v>
+        <v>5.391517446014842</v>
       </c>
       <c r="E9">
-        <v>33.82099721705494</v>
+        <v>32.5701512551917</v>
       </c>
       <c r="F9">
-        <v>20.13035730043946</v>
+        <v>17.03109597004531</v>
       </c>
       <c r="G9">
-        <v>2.065949339135268</v>
+        <v>20.49364971725237</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>3.444791301208059</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.06328779990322</v>
       </c>
       <c r="K9">
-        <v>14.07360801197457</v>
+        <v>11.51858643313603</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.34330293365809</v>
       </c>
       <c r="N9">
-        <v>11.11954304297628</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>15.42939927182361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>11.18311399956413</v>
+      </c>
+      <c r="Q9">
+        <v>13.0840081701233</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.37460530455159</v>
+        <v>16.02656867206734</v>
       </c>
       <c r="C10">
-        <v>9.569832679272686</v>
+        <v>9.374058254129586</v>
       </c>
       <c r="D10">
-        <v>4.908322017712814</v>
+        <v>5.754764913327916</v>
       </c>
       <c r="E10">
-        <v>37.20739203055184</v>
+        <v>34.49528568452361</v>
       </c>
       <c r="F10">
-        <v>21.15785259207582</v>
+        <v>17.67626829158079</v>
       </c>
       <c r="G10">
-        <v>2.056998022968577</v>
+        <v>21.29188786116854</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.773711027765333</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.048788808098072</v>
       </c>
       <c r="K10">
-        <v>15.22765523618833</v>
+        <v>11.38252188840332</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.31761549110811</v>
       </c>
       <c r="N10">
-        <v>10.73563552091995</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>15.8550965771559</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>10.96562207668092</v>
+      </c>
+      <c r="Q10">
+        <v>13.23861629316221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.99132965692983</v>
+        <v>16.36389717046515</v>
       </c>
       <c r="C11">
-        <v>9.850427571917656</v>
+        <v>9.323920132151983</v>
       </c>
       <c r="D11">
-        <v>4.997258917146259</v>
+        <v>6.089081670518806</v>
       </c>
       <c r="E11">
-        <v>38.69273816768084</v>
+        <v>27.85241712185844</v>
       </c>
       <c r="F11">
-        <v>21.63649953818625</v>
+        <v>17.20643649314366</v>
       </c>
       <c r="G11">
-        <v>2.052989262951713</v>
+        <v>20.27768409488096</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>4.169992883585202</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.831476383055961</v>
       </c>
       <c r="K11">
-        <v>15.72823332675936</v>
+        <v>10.98825646735782</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>14.51804371762461</v>
       </c>
       <c r="N11">
-        <v>10.5621978410268</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>16.06692539776805</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>10.94028342768936</v>
+      </c>
+      <c r="Q11">
+        <v>12.74686641596064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.22029711622281</v>
+        <v>16.4049726927258</v>
       </c>
       <c r="C12">
-        <v>9.954988306051927</v>
+        <v>9.164223949999373</v>
       </c>
       <c r="D12">
-        <v>5.030436000200387</v>
+        <v>6.298096690968453</v>
       </c>
       <c r="E12">
-        <v>39.24775531245017</v>
+        <v>21.8558491883967</v>
       </c>
       <c r="F12">
-        <v>21.81931649939287</v>
+        <v>16.65711558335425</v>
       </c>
       <c r="G12">
-        <v>2.051479063950592</v>
+        <v>19.22879166635385</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>5.041427491106421</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.64540708980231</v>
       </c>
       <c r="K12">
-        <v>15.91432023390636</v>
+        <v>10.67778469067693</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.49143547227759</v>
       </c>
       <c r="N12">
-        <v>10.4966386310581</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>16.14984348634036</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>10.97140696962099</v>
+      </c>
+      <c r="Q12">
+        <v>12.28680298414711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.17118699225267</v>
+        <v>16.22269660095725</v>
       </c>
       <c r="C13">
-        <v>9.932544448086492</v>
+        <v>8.907442430485531</v>
       </c>
       <c r="D13">
-        <v>5.023313310324673</v>
+        <v>6.42798905515958</v>
       </c>
       <c r="E13">
-        <v>39.12854566902715</v>
+        <v>15.85796432957468</v>
       </c>
       <c r="F13">
-        <v>21.77987466851862</v>
+        <v>16.00136507015229</v>
       </c>
       <c r="G13">
-        <v>2.051803985440249</v>
+        <v>18.06750556236341</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.121021508484558</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.471890601379114</v>
       </c>
       <c r="K13">
-        <v>15.87439675853871</v>
+        <v>10.41390918468772</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.28865114531717</v>
       </c>
       <c r="N13">
-        <v>10.51075367485166</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>16.13186395734136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>11.04367663704353</v>
+      </c>
+      <c r="Q13">
+        <v>11.82007785131808</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.01025814088692</v>
+        <v>15.99212165699369</v>
       </c>
       <c r="C14">
-        <v>9.859063738494743</v>
+        <v>8.682255515346595</v>
       </c>
       <c r="D14">
-        <v>4.999998568776273</v>
+        <v>6.484359581227403</v>
       </c>
       <c r="E14">
-        <v>38.73854617406992</v>
+        <v>11.68631804462082</v>
       </c>
       <c r="F14">
-        <v>21.65150888888275</v>
+        <v>15.48948374731754</v>
       </c>
       <c r="G14">
-        <v>2.05286486868469</v>
+        <v>17.19628856312393</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.954493425214715</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.356676299827967</v>
       </c>
       <c r="K14">
-        <v>15.74361212268085</v>
+        <v>10.25249814346898</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>14.06535358154771</v>
       </c>
       <c r="N14">
-        <v>10.55680221855773</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>16.07369243616596</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>11.11186779352801</v>
+      </c>
+      <c r="Q14">
+        <v>11.49094420919912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.91109139811427</v>
+        <v>15.88693621248333</v>
       </c>
       <c r="C15">
-        <v>9.813834350281043</v>
+        <v>8.605310988921095</v>
       </c>
       <c r="D15">
-        <v>4.985651777356236</v>
+        <v>6.481225812530406</v>
       </c>
       <c r="E15">
-        <v>38.49870491422557</v>
+        <v>10.67710396827203</v>
       </c>
       <c r="F15">
-        <v>21.57308357303325</v>
+        <v>15.34357363208002</v>
       </c>
       <c r="G15">
-        <v>2.05351567064357</v>
+        <v>16.96230525329242</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.146837690375166</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.332272247187896</v>
       </c>
       <c r="K15">
-        <v>15.66305200790116</v>
+        <v>10.22447493833953</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.97204144559597</v>
       </c>
       <c r="N15">
-        <v>10.58502190137898</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>16.03841535766097</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>11.13580582374194</v>
+      </c>
+      <c r="Q15">
+        <v>11.4114278005529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.33365683200719</v>
+        <v>15.4183010812664</v>
       </c>
       <c r="C16">
-        <v>9.551257487466575</v>
+        <v>8.397187557371236</v>
       </c>
       <c r="D16">
-        <v>4.902440630262329</v>
+        <v>6.312612468025076</v>
       </c>
       <c r="E16">
-        <v>37.10925131012836</v>
+        <v>10.601046357693</v>
       </c>
       <c r="F16">
-        <v>21.1267931147892</v>
+        <v>15.17310312511305</v>
       </c>
       <c r="G16">
-        <v>2.057261172215694</v>
+        <v>16.8073392588087</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.877907192945427</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.37310961117414</v>
       </c>
       <c r="K16">
-        <v>15.19445324537161</v>
+        <v>10.33756594463276</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.60099007971209</v>
       </c>
       <c r="N16">
-        <v>10.74698970347778</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>15.84162649553594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>11.20308471708143</v>
+      </c>
+      <c r="Q16">
+        <v>11.43369502122529</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.97119308757608</v>
+        <v>15.17927013475598</v>
       </c>
       <c r="C17">
-        <v>9.387147637563173</v>
+        <v>8.358544471698544</v>
       </c>
       <c r="D17">
-        <v>4.85052031264126</v>
+        <v>6.149581778870754</v>
       </c>
       <c r="E17">
-        <v>36.24306814558562</v>
+        <v>12.8121181133225</v>
       </c>
       <c r="F17">
-        <v>20.85584332475248</v>
+        <v>15.32378169554502</v>
       </c>
       <c r="G17">
-        <v>2.059574252158302</v>
+        <v>17.16686233522925</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.179166015966956</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.46616251395021</v>
       </c>
       <c r="K17">
-        <v>14.90075666159547</v>
+        <v>10.50979377727966</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>13.43424326872427</v>
       </c>
       <c r="N17">
-        <v>10.84662236496093</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>15.72562250096898</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>11.22058579626697</v>
+      </c>
+      <c r="Q17">
+        <v>11.6279548167722</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.75966668565697</v>
+        <v>15.11918041550141</v>
       </c>
       <c r="C18">
-        <v>9.291641972669414</v>
+        <v>8.467815069838592</v>
       </c>
       <c r="D18">
-        <v>4.820342582944407</v>
+        <v>5.974749999742532</v>
       </c>
       <c r="E18">
-        <v>35.73964090033502</v>
+        <v>17.48124057601919</v>
       </c>
       <c r="F18">
-        <v>20.70105969258605</v>
+        <v>15.76040264558338</v>
       </c>
       <c r="G18">
-        <v>2.060910709180408</v>
+        <v>17.99954760546132</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>5.110979134933789</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.612583938623139</v>
       </c>
       <c r="K18">
-        <v>14.7295302452637</v>
+        <v>10.75076448891602</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.4317182125542</v>
       </c>
       <c r="N18">
-        <v>10.90404534537683</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>15.66060581545276</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>11.1995621965164</v>
+      </c>
+      <c r="Q18">
+        <v>11.98763111340284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.68752200095792</v>
+        <v>15.21081503658394</v>
       </c>
       <c r="C19">
-        <v>9.259114031325897</v>
+        <v>8.692323804913187</v>
       </c>
       <c r="D19">
-        <v>4.810071515910776</v>
+        <v>5.805265462107332</v>
       </c>
       <c r="E19">
-        <v>35.56827850400547</v>
+        <v>23.81813778456689</v>
       </c>
       <c r="F19">
-        <v>20.64883645607705</v>
+        <v>16.38506893702253</v>
       </c>
       <c r="G19">
-        <v>2.061364283543579</v>
+        <v>19.13922963904286</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>4.070500618550998</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.790157068909312</v>
       </c>
       <c r="K19">
-        <v>14.67115991157009</v>
+        <v>11.03083817415126</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>13.56519331376695</v>
       </c>
       <c r="N19">
-        <v>10.92350945670883</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>15.63888250076114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>11.15147107691261</v>
+      </c>
+      <c r="Q19">
+        <v>12.45189259439142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.01009278590214</v>
+        <v>15.71770440807913</v>
       </c>
       <c r="C20">
-        <v>9.404732694057596</v>
+        <v>9.219982756115655</v>
       </c>
       <c r="D20">
-        <v>4.856080017433738</v>
+        <v>5.662650942281841</v>
       </c>
       <c r="E20">
-        <v>36.33581193289284</v>
+        <v>33.96204505169045</v>
       </c>
       <c r="F20">
-        <v>20.88457716886528</v>
+        <v>17.5012498012582</v>
       </c>
       <c r="G20">
-        <v>2.059327405051397</v>
+        <v>21.07216850186156</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.686192792539896</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.050157819085728</v>
       </c>
       <c r="K20">
-        <v>14.93225895137699</v>
+        <v>11.41381274712021</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.06735589607408</v>
       </c>
       <c r="N20">
-        <v>10.83600458170099</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>15.73779413549878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>11.02225877607691</v>
+      </c>
+      <c r="Q20">
+        <v>13.19233427719812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.05765032046187</v>
+        <v>16.63420833010479</v>
       </c>
       <c r="C21">
-        <v>9.880692697286699</v>
+        <v>9.714125329767334</v>
       </c>
       <c r="D21">
-        <v>5.006860426391794</v>
+        <v>5.898929502916125</v>
       </c>
       <c r="E21">
-        <v>38.8532966376982</v>
+        <v>36.71123245715447</v>
       </c>
       <c r="F21">
-        <v>21.68917090888857</v>
+        <v>18.13969256294399</v>
       </c>
       <c r="G21">
-        <v>2.052553059686462</v>
+        <v>21.94394144848948</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.98705849589988</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.083740150985198</v>
       </c>
       <c r="K21">
-        <v>15.78212059443841</v>
+        <v>11.38358752838175</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.82312855366506</v>
       </c>
       <c r="N21">
-        <v>10.54327391292127</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>16.09070475320473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>10.84690804836537</v>
+      </c>
+      <c r="Q21">
+        <v>13.42573018060395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.71567585100716</v>
+        <v>17.19713831384623</v>
       </c>
       <c r="C22">
-        <v>10.18189279219186</v>
+        <v>10.00702637737866</v>
       </c>
       <c r="D22">
-        <v>5.102473856779993</v>
+        <v>6.057774422544325</v>
       </c>
       <c r="E22">
-        <v>40.45544748771635</v>
+        <v>37.9990665814512</v>
       </c>
       <c r="F22">
-        <v>22.22412439456314</v>
+        <v>18.51467367094332</v>
       </c>
       <c r="G22">
-        <v>2.048170603582241</v>
+        <v>22.43713780734665</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>4.161611421031307</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.097299674678926</v>
       </c>
       <c r="K22">
-        <v>16.31734636942588</v>
+        <v>11.35246537151218</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.284788625662</v>
       </c>
       <c r="N22">
-        <v>10.35261491333869</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>16.33714942767932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>10.73759858184437</v>
+      </c>
+      <c r="Q22">
+        <v>13.55277581989755</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.36688410628913</v>
+        <v>16.89896591867868</v>
       </c>
       <c r="C23">
-        <v>10.02203510184492</v>
+        <v>9.85173488645346</v>
       </c>
       <c r="D23">
-        <v>5.051717232945449</v>
+        <v>5.973561207526267</v>
       </c>
       <c r="E23">
-        <v>39.60412781298428</v>
+        <v>37.31670973729002</v>
       </c>
       <c r="F23">
-        <v>21.9377885583326</v>
+        <v>18.3142824919944</v>
       </c>
       <c r="G23">
-        <v>2.050505938010883</v>
+        <v>22.17342235397142</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>4.068770680411701</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.089676034437002</v>
       </c>
       <c r="K23">
-        <v>16.03352020987265</v>
+        <v>11.3682665508716</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.04011589941966</v>
       </c>
       <c r="N23">
-        <v>10.45433274853301</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>16.2041424220861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>10.79579402575399</v>
+      </c>
+      <c r="Q23">
+        <v>13.48423113628958</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.99251602190281</v>
+        <v>15.71963824524218</v>
       </c>
       <c r="C24">
-        <v>9.396786093300284</v>
+        <v>9.240949185901329</v>
       </c>
       <c r="D24">
-        <v>4.853567495213505</v>
+        <v>5.642261878396688</v>
       </c>
       <c r="E24">
-        <v>36.2938994683217</v>
+        <v>34.62252498020646</v>
       </c>
       <c r="F24">
-        <v>20.8715835132039</v>
+        <v>17.56141781236845</v>
       </c>
       <c r="G24">
-        <v>2.059438983863705</v>
+        <v>21.18585592528074</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.709955591317442</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.069112072265622</v>
       </c>
       <c r="K24">
-        <v>14.91802417069225</v>
+        <v>11.44536354881435</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.07565644109417</v>
       </c>
       <c r="N24">
-        <v>10.84080443250488</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>15.73228612729738</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>11.01941977234393</v>
+      </c>
+      <c r="Q24">
+        <v>13.24065635125503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.3932952669403</v>
+        <v>14.34017718724759</v>
       </c>
       <c r="C25">
-        <v>8.679821596808917</v>
+        <v>8.534582816465285</v>
       </c>
       <c r="D25">
-        <v>4.627899272826516</v>
+        <v>5.259005339024921</v>
       </c>
       <c r="E25">
-        <v>32.52210988701959</v>
+        <v>31.47962577083672</v>
       </c>
       <c r="F25">
-        <v>19.76236454723243</v>
+        <v>16.76534573006134</v>
       </c>
       <c r="G25">
-        <v>2.069309592615073</v>
+        <v>20.14802348439666</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>3.306721325636567</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.063513914486251</v>
       </c>
       <c r="K25">
-        <v>13.62678323917775</v>
+        <v>11.56212940956166</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.9552794449914</v>
       </c>
       <c r="N25">
-        <v>11.26232799325868</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>15.28813957052538</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>11.26772704908147</v>
+      </c>
+      <c r="Q25">
+        <v>13.01088690851264</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_36/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1205 +421,1355 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23179036678256</v>
+        <v>13.04231098899747</v>
       </c>
       <c r="C2">
-        <v>7.974762748102518</v>
+        <v>8.271645439320526</v>
       </c>
       <c r="D2">
-        <v>4.955175901031125</v>
+        <v>5.017120815860651</v>
       </c>
       <c r="E2">
-        <v>28.95985080465236</v>
+        <v>28.93493821093041</v>
       </c>
       <c r="F2">
-        <v>16.19610658091785</v>
+        <v>15.99040966191834</v>
       </c>
       <c r="G2">
-        <v>19.41101925882625</v>
+        <v>18.32572514036279</v>
       </c>
       <c r="H2">
-        <v>2.995049526238752</v>
+        <v>2.978525830665562</v>
       </c>
       <c r="J2">
-        <v>8.072488450007244</v>
+        <v>8.602364754928162</v>
       </c>
       <c r="K2">
-        <v>11.67391174797108</v>
+        <v>11.48995551297219</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.79134214491816</v>
       </c>
       <c r="M2">
-        <v>12.06255835965327</v>
+        <v>6.259202829948175</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.04590422025652</v>
       </c>
       <c r="P2">
-        <v>11.45691376982603</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.86855253615821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>11.47799332393363</v>
+      </c>
+      <c r="S2">
+        <v>12.73509583824647</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.4228528217783</v>
+        <v>12.28167665695477</v>
       </c>
       <c r="C3">
-        <v>7.57148124140685</v>
+        <v>7.772739603794404</v>
       </c>
       <c r="D3">
-        <v>4.736226547782555</v>
+        <v>4.783619113646075</v>
       </c>
       <c r="E3">
-        <v>27.12325263409184</v>
+        <v>27.10662753328846</v>
       </c>
       <c r="F3">
-        <v>15.82254273958724</v>
+        <v>15.65514328964769</v>
       </c>
       <c r="G3">
-        <v>18.93035268003635</v>
+        <v>17.90417843018764</v>
       </c>
       <c r="H3">
-        <v>2.774211267802825</v>
+        <v>2.763394096799623</v>
       </c>
       <c r="J3">
-        <v>8.086163525174921</v>
+        <v>8.596768283917863</v>
       </c>
       <c r="K3">
-        <v>11.76430779183824</v>
+        <v>11.59513137264545</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.95985715893493</v>
       </c>
       <c r="M3">
-        <v>11.41618710751605</v>
+        <v>6.241386898697066</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.40186645617519</v>
       </c>
       <c r="P3">
-        <v>11.58922643809285</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.78797369872969</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>11.59449830917027</v>
+      </c>
+      <c r="S3">
+        <v>12.67738112762393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.89777604487115</v>
+        <v>11.78807738123003</v>
       </c>
       <c r="C4">
-        <v>7.312498809796991</v>
+        <v>7.45145684363937</v>
       </c>
       <c r="D4">
-        <v>4.595561475974757</v>
+        <v>4.633595305360872</v>
       </c>
       <c r="E4">
-        <v>25.93193620453654</v>
+        <v>25.92065780068309</v>
       </c>
       <c r="F4">
-        <v>15.59975835901027</v>
+        <v>15.45489232988499</v>
       </c>
       <c r="G4">
-        <v>18.64511013818023</v>
+        <v>17.65655286875362</v>
       </c>
       <c r="H4">
-        <v>2.633746881364117</v>
+        <v>2.626516596389649</v>
       </c>
       <c r="J4">
-        <v>8.098117323943828</v>
+        <v>8.595067799096919</v>
       </c>
       <c r="K4">
-        <v>11.82657620625424</v>
+        <v>11.66485200207844</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>11.06808895917603</v>
       </c>
       <c r="M4">
-        <v>10.99936842362307</v>
+        <v>6.256331453040691</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.98653278580983</v>
       </c>
       <c r="P4">
-        <v>11.67253207526232</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.74601553079323</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>11.66824060510497</v>
+      </c>
+      <c r="S4">
+        <v>12.64823766521803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.67669607176631</v>
+        <v>11.58028943667065</v>
       </c>
       <c r="C5">
-        <v>7.204181550104177</v>
+        <v>7.316867014135164</v>
       </c>
       <c r="D5">
-        <v>4.536710164659459</v>
+        <v>4.570828968377261</v>
       </c>
       <c r="E5">
-        <v>25.43048123252287</v>
+        <v>25.42145552030198</v>
       </c>
       <c r="F5">
-        <v>15.51071096619144</v>
+        <v>15.37475436020989</v>
       </c>
       <c r="G5">
-        <v>18.53144627192664</v>
+        <v>17.55849163654346</v>
       </c>
       <c r="H5">
-        <v>2.575264580238651</v>
+        <v>2.569517999196818</v>
       </c>
       <c r="J5">
-        <v>8.103855629787486</v>
+        <v>8.594800916545092</v>
       </c>
       <c r="K5">
-        <v>11.85358718368397</v>
+        <v>11.69451062708125</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>11.11340462454575</v>
       </c>
       <c r="M5">
-        <v>10.82458638745461</v>
+        <v>6.268828296648521</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.81237344906245</v>
       </c>
       <c r="P5">
-        <v>11.70700511649977</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.73075791493009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>11.69884868415804</v>
+      </c>
+      <c r="S5">
+        <v>12.63789431622497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.63955784902518</v>
+        <v>11.54538662277025</v>
       </c>
       <c r="C6">
-        <v>7.186030250296906</v>
+        <v>7.294300400423134</v>
       </c>
       <c r="D6">
-        <v>4.526846806562685</v>
+        <v>4.56030958390294</v>
       </c>
       <c r="E6">
-        <v>25.34625063525616</v>
+        <v>25.33760372753897</v>
       </c>
       <c r="F6">
-        <v>15.49603208924228</v>
+        <v>15.36153762693256</v>
       </c>
       <c r="G6">
-        <v>18.51273039683918</v>
+        <v>17.54238131370091</v>
       </c>
       <c r="H6">
-        <v>2.565478123539561</v>
+        <v>2.559979272393254</v>
       </c>
       <c r="J6">
-        <v>8.104860043255623</v>
+        <v>8.594782033665439</v>
       </c>
       <c r="K6">
-        <v>11.85816930746457</v>
+        <v>11.69950943021415</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>11.121002724989</v>
       </c>
       <c r="M6">
-        <v>10.7952695478593</v>
+        <v>6.271286099146699</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.78316120618803</v>
       </c>
       <c r="P6">
-        <v>11.71276124309722</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.72833406200903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>11.70396487633466</v>
+      </c>
+      <c r="S6">
+        <v>12.63626790784272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.89482320788491</v>
+        <v>11.78272039973226</v>
       </c>
       <c r="C7">
-        <v>7.311049146013179</v>
+        <v>7.443482387930199</v>
       </c>
       <c r="D7">
-        <v>4.594773924223685</v>
+        <v>4.635393962846896</v>
       </c>
       <c r="E7">
-        <v>25.92523808441444</v>
+        <v>25.91350564826546</v>
       </c>
       <c r="F7">
-        <v>15.59855028676798</v>
+        <v>15.44214020899921</v>
       </c>
       <c r="G7">
-        <v>18.64356669181331</v>
+        <v>17.74794023843377</v>
       </c>
       <c r="H7">
-        <v>2.632963220091221</v>
+        <v>2.625442172764555</v>
       </c>
       <c r="J7">
-        <v>8.098191238106626</v>
+        <v>8.560234666215791</v>
       </c>
       <c r="K7">
-        <v>11.8269339449895</v>
+        <v>11.66071675931905</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>11.06455700422389</v>
       </c>
       <c r="M7">
-        <v>10.99703105906055</v>
+        <v>6.253792948440482</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.98058108792939</v>
       </c>
       <c r="P7">
-        <v>11.6729948557607</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.74580237620536</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>11.6689958673737</v>
+      </c>
+      <c r="S7">
+        <v>12.63988938774211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9587746076848</v>
+        <v>12.77761661546189</v>
       </c>
       <c r="C8">
-        <v>7.838112595157963</v>
+        <v>8.083510946606173</v>
       </c>
       <c r="D8">
-        <v>4.880995475828343</v>
+        <v>4.946377825023539</v>
       </c>
       <c r="E8">
-        <v>28.33980366877184</v>
+        <v>28.31625114190438</v>
       </c>
       <c r="F8">
-        <v>16.06598600175639</v>
+        <v>15.83595365540485</v>
       </c>
       <c r="G8">
-        <v>19.24328817486309</v>
+        <v>18.47828190974883</v>
       </c>
       <c r="H8">
-        <v>2.919904225299047</v>
+        <v>2.904374143746293</v>
       </c>
       <c r="J8">
-        <v>8.076448656076172</v>
+        <v>8.486458257572428</v>
       </c>
       <c r="K8">
-        <v>11.70363625823136</v>
+        <v>11.51016335615529</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.83610711347203</v>
       </c>
       <c r="M8">
-        <v>11.84387678456384</v>
+        <v>6.236687783531237</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.81673145789622</v>
       </c>
       <c r="P8">
-        <v>11.50211020447349</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.83917972477117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>11.5191612371773</v>
+      </c>
+      <c r="S8">
+        <v>12.68687562888818</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.81923858735255</v>
+        <v>14.52624645480472</v>
       </c>
       <c r="C9">
-        <v>8.778788945426278</v>
+        <v>9.239585673369644</v>
       </c>
       <c r="D9">
-        <v>5.391517446014842</v>
+        <v>5.492163986162465</v>
       </c>
       <c r="E9">
-        <v>32.5701512551917</v>
+        <v>32.5268520128954</v>
       </c>
       <c r="F9">
-        <v>17.03109597004531</v>
+        <v>16.69323357702127</v>
       </c>
       <c r="G9">
-        <v>20.49364971725237</v>
+        <v>19.6515152235942</v>
       </c>
       <c r="H9">
-        <v>3.444791301208059</v>
+        <v>3.415284695453447</v>
       </c>
       <c r="J9">
-        <v>8.06328779990322</v>
+        <v>8.479998669500901</v>
       </c>
       <c r="K9">
-        <v>11.51858643313603</v>
+        <v>11.27435525291768</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>10.44051517938288</v>
       </c>
       <c r="M9">
-        <v>13.34330293365809</v>
+        <v>6.419403257879494</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.30875504290043</v>
       </c>
       <c r="P9">
-        <v>11.18311399956413</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>13.0840081701233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>11.24156040996422</v>
+      </c>
+      <c r="S9">
+        <v>12.86116433248402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.02656867206734</v>
+        <v>15.65156234697759</v>
       </c>
       <c r="C10">
-        <v>9.374058254129586</v>
+        <v>9.939393472992734</v>
       </c>
       <c r="D10">
-        <v>5.754764913327916</v>
+        <v>5.890938125107795</v>
       </c>
       <c r="E10">
-        <v>34.49528568452361</v>
+        <v>34.43636237759911</v>
       </c>
       <c r="F10">
-        <v>17.67626829158079</v>
+        <v>17.20144588815213</v>
       </c>
       <c r="G10">
-        <v>21.29188786116854</v>
+        <v>20.8850451048622</v>
       </c>
       <c r="H10">
-        <v>3.773711027765333</v>
+        <v>3.733207452802213</v>
       </c>
       <c r="J10">
-        <v>8.048788808098072</v>
+        <v>8.274171917331778</v>
       </c>
       <c r="K10">
-        <v>11.38252188840332</v>
+        <v>11.0712807477671</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>10.13374943036396</v>
       </c>
       <c r="M10">
-        <v>14.31761549110811</v>
+        <v>6.617963169113428</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>14.26087107504131</v>
       </c>
       <c r="P10">
-        <v>10.96562207668092</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>13.23861629316221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>11.0601288068148</v>
+      </c>
+      <c r="S10">
+        <v>12.91744813892502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36389717046515</v>
+        <v>15.96403170942225</v>
       </c>
       <c r="C11">
-        <v>9.323920132151983</v>
+        <v>9.823515350101324</v>
       </c>
       <c r="D11">
-        <v>6.089081670518806</v>
+        <v>6.255645146334249</v>
       </c>
       <c r="E11">
-        <v>27.85241712185844</v>
+        <v>27.78429084322387</v>
       </c>
       <c r="F11">
-        <v>17.20643649314366</v>
+        <v>16.61181882225253</v>
       </c>
       <c r="G11">
-        <v>20.27768409488096</v>
+        <v>20.93294224533125</v>
       </c>
       <c r="H11">
-        <v>4.169992883585202</v>
+        <v>4.131010465845607</v>
       </c>
       <c r="J11">
-        <v>7.831476383055961</v>
+        <v>7.735191027718683</v>
       </c>
       <c r="K11">
-        <v>10.98825646735782</v>
+        <v>10.65688183650487</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>9.800627906159088</v>
       </c>
       <c r="M11">
-        <v>14.51804371762461</v>
+        <v>6.395878201498468</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>14.42333134775495</v>
       </c>
       <c r="P11">
-        <v>10.94028342768936</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>12.74686641596064</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>11.06680443471345</v>
+      </c>
+      <c r="S11">
+        <v>12.34771143792075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.4049726927258</v>
+        <v>16.00758142005067</v>
       </c>
       <c r="C12">
-        <v>9.164223949999373</v>
+        <v>9.605102725321817</v>
       </c>
       <c r="D12">
-        <v>6.298096690968453</v>
+        <v>6.475445618287362</v>
       </c>
       <c r="E12">
-        <v>21.8558491883967</v>
+        <v>21.78085472791507</v>
       </c>
       <c r="F12">
-        <v>16.65711558335425</v>
+        <v>16.0287837664712</v>
       </c>
       <c r="G12">
-        <v>19.22879166635385</v>
+        <v>20.39463199128413</v>
       </c>
       <c r="H12">
-        <v>5.041427491106421</v>
+        <v>5.009877014568467</v>
       </c>
       <c r="J12">
-        <v>7.64540708980231</v>
+        <v>7.465684089587548</v>
       </c>
       <c r="K12">
-        <v>10.67778469067693</v>
+        <v>10.36465374291292</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.603231208224623</v>
       </c>
       <c r="M12">
-        <v>14.49143547227759</v>
+        <v>6.165282871513083</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>14.37923591033569</v>
       </c>
       <c r="P12">
-        <v>10.97140696962099</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>12.28680298414711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>11.11584301743131</v>
+      </c>
+      <c r="S12">
+        <v>11.87482081419945</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22269660095725</v>
+        <v>15.85397454567103</v>
       </c>
       <c r="C13">
-        <v>8.907442430485531</v>
+        <v>9.301739160762292</v>
       </c>
       <c r="D13">
-        <v>6.42798905515958</v>
+        <v>6.595580721250433</v>
       </c>
       <c r="E13">
-        <v>15.85796432957468</v>
+        <v>15.77516889063374</v>
       </c>
       <c r="F13">
-        <v>16.00136507015229</v>
+        <v>15.42967767403704</v>
       </c>
       <c r="G13">
-        <v>18.06750556236341</v>
+        <v>19.14184726707661</v>
       </c>
       <c r="H13">
-        <v>6.121021508484558</v>
+        <v>6.09730135951181</v>
       </c>
       <c r="J13">
-        <v>7.471890601379114</v>
+        <v>7.394554094467195</v>
       </c>
       <c r="K13">
-        <v>10.41390918468772</v>
+        <v>10.15647472721878</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>9.489384443932012</v>
       </c>
       <c r="M13">
-        <v>14.28865114531717</v>
+        <v>5.927372759862108</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>14.18037360003326</v>
       </c>
       <c r="P13">
-        <v>11.04367663704353</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.82007785131808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>11.19031113076698</v>
+      </c>
+      <c r="S13">
+        <v>11.46184781102649</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99212165699369</v>
+        <v>15.65542100357068</v>
       </c>
       <c r="C14">
-        <v>8.682255515346595</v>
+        <v>9.048102599715605</v>
       </c>
       <c r="D14">
-        <v>6.484359581227403</v>
+        <v>6.635723138874903</v>
       </c>
       <c r="E14">
-        <v>11.68631804462082</v>
+        <v>11.59362089737575</v>
       </c>
       <c r="F14">
-        <v>15.48948374731754</v>
+        <v>14.9969294347436</v>
       </c>
       <c r="G14">
-        <v>17.19628856312393</v>
+        <v>17.94345063450511</v>
       </c>
       <c r="H14">
-        <v>6.954493425214715</v>
+        <v>6.935530281505003</v>
       </c>
       <c r="J14">
-        <v>7.356676299827967</v>
+        <v>7.416535688834191</v>
       </c>
       <c r="K14">
-        <v>10.25249814346898</v>
+        <v>10.04753566273807</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.442425651541459</v>
       </c>
       <c r="M14">
-        <v>14.06535358154771</v>
+        <v>5.760454605382056</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.96917638437089</v>
       </c>
       <c r="P14">
-        <v>11.11186779352801</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.49094420919912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>11.25178108626935</v>
+      </c>
+      <c r="S14">
+        <v>11.19751035895836</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.88693621248333</v>
+        <v>15.56344223192782</v>
       </c>
       <c r="C15">
-        <v>8.605310988921095</v>
+        <v>8.96553465097093</v>
       </c>
       <c r="D15">
-        <v>6.481225812530406</v>
+        <v>6.624542150654017</v>
       </c>
       <c r="E15">
-        <v>10.67710396827203</v>
+        <v>10.58195834063172</v>
       </c>
       <c r="F15">
-        <v>15.34357363208002</v>
+        <v>14.88710994399071</v>
       </c>
       <c r="G15">
-        <v>16.96230525329242</v>
+        <v>17.51875174160222</v>
       </c>
       <c r="H15">
-        <v>7.146837690375166</v>
+        <v>7.129166653518343</v>
       </c>
       <c r="J15">
-        <v>7.332272247187896</v>
+        <v>7.453841871676631</v>
       </c>
       <c r="K15">
-        <v>10.22447493833953</v>
+        <v>10.03773382376716</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.445282709422349</v>
       </c>
       <c r="M15">
-        <v>13.97204144559597</v>
+        <v>5.720404999666931</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.88289271323989</v>
       </c>
       <c r="P15">
-        <v>11.13580582374194</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>11.4114278005529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>11.27052509885112</v>
+      </c>
+      <c r="S15">
+        <v>11.14499314908303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.4183010812664</v>
+        <v>15.14255515195451</v>
       </c>
       <c r="C16">
-        <v>8.397187557371236</v>
+        <v>8.763176700319091</v>
       </c>
       <c r="D16">
-        <v>6.312612468025076</v>
+        <v>6.421437025374671</v>
       </c>
       <c r="E16">
-        <v>10.601046357693</v>
+        <v>10.51979051469258</v>
       </c>
       <c r="F16">
-        <v>15.17310312511305</v>
+        <v>14.85690788623044</v>
       </c>
       <c r="G16">
-        <v>16.8073392588087</v>
+        <v>16.4585928154575</v>
       </c>
       <c r="H16">
-        <v>6.877907192945427</v>
+        <v>6.86295782815167</v>
       </c>
       <c r="J16">
-        <v>7.37310961117414</v>
+        <v>7.753337206244402</v>
       </c>
       <c r="K16">
-        <v>10.33756594463276</v>
+        <v>10.19707302595843</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>9.585935121307218</v>
       </c>
       <c r="M16">
-        <v>13.60099007971209</v>
+        <v>5.727599812021186</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.54614083025732</v>
       </c>
       <c r="P16">
-        <v>11.20308471708143</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>11.43369502122529</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>11.30836479433818</v>
+      </c>
+      <c r="S16">
+        <v>11.26096699573154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.17927013475598</v>
+        <v>14.91986545162785</v>
       </c>
       <c r="C17">
-        <v>8.358544471698544</v>
+        <v>8.737523138814847</v>
       </c>
       <c r="D17">
-        <v>6.149581778870754</v>
+        <v>6.244558465552862</v>
       </c>
       <c r="E17">
-        <v>12.8121181133225</v>
+        <v>12.746207524959</v>
       </c>
       <c r="F17">
-        <v>15.32378169554502</v>
+        <v>15.05703642354966</v>
       </c>
       <c r="G17">
-        <v>17.16686233522925</v>
+        <v>16.42707633965591</v>
       </c>
       <c r="H17">
-        <v>6.179166015966956</v>
+        <v>6.164185319430279</v>
       </c>
       <c r="J17">
-        <v>7.46616251395021</v>
+        <v>7.956439731659396</v>
       </c>
       <c r="K17">
-        <v>10.50979377727966</v>
+        <v>10.37407138776794</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>9.72506799976628</v>
       </c>
       <c r="M17">
-        <v>13.43424326872427</v>
+        <v>5.814905462523816</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.39492914333312</v>
       </c>
       <c r="P17">
-        <v>11.22058579626697</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.6279548167722</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>11.31056967157507</v>
+      </c>
+      <c r="S17">
+        <v>11.48352586265063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.11918041550141</v>
+        <v>14.85442113860007</v>
       </c>
       <c r="C18">
-        <v>8.467815069838592</v>
+        <v>8.87890777497798</v>
       </c>
       <c r="D18">
-        <v>5.974749999742532</v>
+        <v>6.067188616438804</v>
       </c>
       <c r="E18">
-        <v>17.48124057601919</v>
+        <v>17.42714800358419</v>
       </c>
       <c r="F18">
-        <v>15.76040264558338</v>
+        <v>15.49419124369509</v>
       </c>
       <c r="G18">
-        <v>17.99954760546132</v>
+        <v>17.07735386587578</v>
       </c>
       <c r="H18">
-        <v>5.110979134933789</v>
+        <v>5.093044012151196</v>
       </c>
       <c r="J18">
-        <v>7.612583938623139</v>
+        <v>8.139314607481506</v>
       </c>
       <c r="K18">
-        <v>10.75076448891602</v>
+        <v>10.59458975571129</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.885911552875145</v>
       </c>
       <c r="M18">
-        <v>13.4317182125542</v>
+        <v>5.979939683064491</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>13.39943990552655</v>
       </c>
       <c r="P18">
-        <v>11.1995621965164</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.98763111340284</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>11.28122654988748</v>
+      </c>
+      <c r="S18">
+        <v>11.83631367841036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.21081503658394</v>
+        <v>14.92522821602556</v>
       </c>
       <c r="C19">
-        <v>8.692323804913187</v>
+        <v>9.153075057353858</v>
       </c>
       <c r="D19">
-        <v>5.805265462107332</v>
+        <v>5.902174972664765</v>
       </c>
       <c r="E19">
-        <v>23.81813778456689</v>
+        <v>23.76908583781085</v>
       </c>
       <c r="F19">
-        <v>16.38506893702253</v>
+        <v>16.0900076064189</v>
       </c>
       <c r="G19">
-        <v>19.13922963904286</v>
+        <v>18.1380957449627</v>
       </c>
       <c r="H19">
-        <v>4.070500618550998</v>
+        <v>4.046001582913247</v>
       </c>
       <c r="J19">
-        <v>7.790157068909312</v>
+        <v>8.312643499857291</v>
       </c>
       <c r="K19">
-        <v>11.03083817415126</v>
+        <v>10.83829013716766</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>10.05543599987867</v>
       </c>
       <c r="M19">
-        <v>13.56519331376695</v>
+        <v>6.196962468381837</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>13.53502426230408</v>
       </c>
       <c r="P19">
-        <v>11.15147107691261</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>12.45189259439142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>11.22901984414406</v>
+      </c>
+      <c r="S19">
+        <v>12.27257440971886</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.71770440807913</v>
+        <v>15.37104354888601</v>
       </c>
       <c r="C20">
-        <v>9.219982756115655</v>
+        <v>9.776302479830452</v>
       </c>
       <c r="D20">
-        <v>5.662650942281841</v>
+        <v>5.781661374240192</v>
       </c>
       <c r="E20">
-        <v>33.96204505169045</v>
+        <v>33.90844073174735</v>
       </c>
       <c r="F20">
-        <v>17.5012498012582</v>
+        <v>17.10015094851826</v>
       </c>
       <c r="G20">
-        <v>21.07216850186156</v>
+        <v>20.25513317994132</v>
       </c>
       <c r="H20">
-        <v>3.686192792539896</v>
+        <v>3.649421576163971</v>
       </c>
       <c r="J20">
-        <v>8.050157819085728</v>
+        <v>8.442556822037387</v>
       </c>
       <c r="K20">
-        <v>11.41381274712021</v>
+        <v>11.13714641608238</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>10.2215086091795</v>
       </c>
       <c r="M20">
-        <v>14.06735589607408</v>
+        <v>6.572781430509522</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.02678982920588</v>
       </c>
       <c r="P20">
-        <v>11.02225877607691</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>13.19233427719812</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>11.10476281504246</v>
+      </c>
+      <c r="S20">
+        <v>12.92577285109341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.63420833010479</v>
+        <v>16.18507929607637</v>
       </c>
       <c r="C21">
-        <v>9.714125329767334</v>
+        <v>10.26626513630045</v>
       </c>
       <c r="D21">
-        <v>5.898929502916125</v>
+        <v>6.086762585580606</v>
       </c>
       <c r="E21">
-        <v>36.71123245715447</v>
+        <v>36.63926714497705</v>
       </c>
       <c r="F21">
-        <v>18.13969256294399</v>
+        <v>17.42982697601938</v>
       </c>
       <c r="G21">
-        <v>21.94394144848948</v>
+        <v>22.9968827574885</v>
       </c>
       <c r="H21">
-        <v>3.98705849589988</v>
+        <v>3.937138988686922</v>
       </c>
       <c r="J21">
-        <v>8.083740150985198</v>
+        <v>7.758328510005716</v>
       </c>
       <c r="K21">
-        <v>11.38358752838175</v>
+        <v>10.95662357004592</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.976047100669046</v>
       </c>
       <c r="M21">
-        <v>14.82312855366506</v>
+        <v>6.725167412531957</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>14.71257819346897</v>
       </c>
       <c r="P21">
-        <v>10.84690804836537</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>13.42573018060395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>10.97013400373441</v>
+      </c>
+      <c r="S21">
+        <v>12.92497286821251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.19713831384623</v>
+        <v>16.68316735521904</v>
       </c>
       <c r="C22">
-        <v>10.00702637737866</v>
+        <v>10.54638365396158</v>
       </c>
       <c r="D22">
-        <v>6.057774422544325</v>
+        <v>6.29165191480972</v>
       </c>
       <c r="E22">
-        <v>37.9990665814512</v>
+        <v>37.9154930797208</v>
       </c>
       <c r="F22">
-        <v>18.51467367094332</v>
+        <v>17.59340000515407</v>
       </c>
       <c r="G22">
-        <v>22.43713780734665</v>
+        <v>24.80633113672318</v>
       </c>
       <c r="H22">
-        <v>4.161611421031307</v>
+        <v>4.103447739831427</v>
       </c>
       <c r="J22">
-        <v>8.097299674678926</v>
+        <v>7.337150358330893</v>
       </c>
       <c r="K22">
-        <v>11.35246537151218</v>
+        <v>10.81963681341111</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>9.808190857149754</v>
       </c>
       <c r="M22">
-        <v>15.284788625662</v>
+        <v>6.816732015362143</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>15.1266778571341</v>
       </c>
       <c r="P22">
-        <v>10.73759858184437</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13.55277581989755</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>10.89081920271597</v>
+      </c>
+      <c r="S22">
+        <v>12.88807434631534</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.89896591867868</v>
+        <v>16.42437435718974</v>
       </c>
       <c r="C23">
-        <v>9.85173488645346</v>
+        <v>10.41035730224382</v>
       </c>
       <c r="D23">
-        <v>5.973561207526267</v>
+        <v>6.177293075314823</v>
       </c>
       <c r="E23">
-        <v>37.31670973729002</v>
+        <v>37.24004151437047</v>
       </c>
       <c r="F23">
-        <v>18.3142824919944</v>
+        <v>17.53296172345903</v>
       </c>
       <c r="G23">
-        <v>22.17342235397142</v>
+        <v>23.62616337631566</v>
       </c>
       <c r="H23">
-        <v>4.068770680411701</v>
+        <v>4.01550264980336</v>
       </c>
       <c r="J23">
-        <v>8.089676034437002</v>
+        <v>7.619657811597098</v>
       </c>
       <c r="K23">
-        <v>11.3682665508716</v>
+        <v>10.90444160823805</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.904069401199001</v>
       </c>
       <c r="M23">
-        <v>15.04011589941966</v>
+        <v>6.778572353043104</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>14.91450625812443</v>
       </c>
       <c r="P23">
-        <v>10.79579402575399</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>13.48423113628958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>10.93086133297229</v>
+      </c>
+      <c r="S23">
+        <v>12.92819919392911</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.71963824524218</v>
+        <v>15.37146336062547</v>
       </c>
       <c r="C24">
-        <v>9.240949185901329</v>
+        <v>9.802320076244447</v>
       </c>
       <c r="D24">
-        <v>5.642261878396688</v>
+        <v>5.76125105927617</v>
       </c>
       <c r="E24">
-        <v>34.62252498020646</v>
+        <v>34.56894599646709</v>
       </c>
       <c r="F24">
-        <v>17.56141781236845</v>
+        <v>17.15932754254853</v>
       </c>
       <c r="G24">
-        <v>21.18585592528074</v>
+        <v>20.34872844115677</v>
       </c>
       <c r="H24">
-        <v>3.709955591317442</v>
+        <v>3.67307429516742</v>
       </c>
       <c r="J24">
-        <v>8.069112072265622</v>
+        <v>8.465689052600164</v>
       </c>
       <c r="K24">
-        <v>11.44536354881435</v>
+        <v>11.16557300785204</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>10.24277838048201</v>
       </c>
       <c r="M24">
-        <v>14.07565644109417</v>
+        <v>6.595048326012486</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.03569911138731</v>
       </c>
       <c r="P24">
-        <v>11.01941977234393</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>13.24065635125503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>11.10095718216722</v>
+      </c>
+      <c r="S24">
+        <v>12.97258720209654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.34017718724759</v>
+        <v>14.07909194962465</v>
       </c>
       <c r="C25">
-        <v>8.534582816465285</v>
+        <v>8.947860433939452</v>
       </c>
       <c r="D25">
-        <v>5.259005339024921</v>
+        <v>5.347148635160808</v>
       </c>
       <c r="E25">
-        <v>31.47962577083672</v>
+        <v>31.44208904944177</v>
       </c>
       <c r="F25">
-        <v>16.76534573006134</v>
+        <v>16.4727123023231</v>
       </c>
       <c r="G25">
-        <v>20.14802348439666</v>
+        <v>19.20215671351141</v>
       </c>
       <c r="H25">
-        <v>3.306721325636567</v>
+        <v>3.281315945188897</v>
       </c>
       <c r="J25">
-        <v>8.063513914486251</v>
+        <v>8.528070743518571</v>
       </c>
       <c r="K25">
-        <v>11.56212940956166</v>
+        <v>11.33962648617763</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>10.54828239371055</v>
       </c>
       <c r="M25">
-        <v>12.9552794449914</v>
+        <v>6.353550708914836</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.92719527474007</v>
       </c>
       <c r="P25">
-        <v>11.26772704908147</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>13.01088690851264</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>11.31402627191079</v>
+      </c>
+      <c r="S25">
+        <v>12.81953457793654</v>
       </c>
     </row>
   </sheetData>
